--- a/data/trans_camb/P2A_enfcro_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>6.651528147125751</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-12.45698709318027</v>
+        <v>-12.45698709318028</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>9.754350619198792</v>
@@ -664,7 +664,7 @@
         <v>7.571733011455361</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-12.41974430006798</v>
+        <v>-12.41974430006799</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.616009028917761</v>
+        <v>8.811836560368869</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.199809409343737</v>
+        <v>2.212152182350642</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.82273538731179</v>
+        <v>-17.18577012868658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.549867536462404</v>
+        <v>6.769096846008732</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.96927902848786</v>
+        <v>4.630717641631697</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-16.62714104896578</v>
+        <v>-16.56162824384823</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.609250127172828</v>
+        <v>8.949754211458478</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.930129232142282</v>
+        <v>4.751791220440118</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-15.47074613969981</v>
+        <v>-15.4463098738142</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.74394614378136</v>
+        <v>16.61984041777262</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.09018974520635</v>
+        <v>11.48015986630288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.865690309257624</v>
+        <v>-6.977727859152477</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.56925670318872</v>
+        <v>12.6830184927074</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.35918014514241</v>
+        <v>11.13735527744541</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-9.553922732949504</v>
+        <v>-9.507332583445423</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.81058561819782</v>
+        <v>13.91131355592432</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.21367814677697</v>
+        <v>10.22798382197133</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-9.466339254665547</v>
+        <v>-9.355877386558204</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1059104829354141</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.198349234909131</v>
+        <v>-0.1983492349091312</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1284440403353508</v>
@@ -769,7 +769,7 @@
         <v>0.1079114646556462</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1770047617951261</v>
+        <v>-0.1770047617951263</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1318681007748627</v>
+        <v>0.1346179139927717</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03425625072214257</v>
+        <v>0.03322612514874114</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2748367930809983</v>
+        <v>-0.265797523867483</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08427112841365153</v>
+        <v>0.08638061443507322</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06387324699679289</v>
+        <v>0.05964587900401466</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2158019399341612</v>
+        <v>-0.2123420764847051</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1205330327643157</v>
+        <v>0.1249414612933068</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06988929969481801</v>
+        <v>0.0665503621886054</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2166841233912762</v>
+        <v>-0.2180755522406679</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.27704102704894</v>
+        <v>0.2739297943426171</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1853830587766179</v>
+        <v>0.189679684467213</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1266607517972296</v>
+        <v>-0.115117129410485</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1708485917138671</v>
+        <v>0.1701617201034731</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1523984369015993</v>
+        <v>0.1497069743821001</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1293515025266925</v>
+        <v>-0.1270111208123349</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2008674675403143</v>
+        <v>0.202405792398088</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1475046809459717</v>
+        <v>0.1481485938942228</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1361016908165145</v>
+        <v>-0.1355193031994764</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.547807033535944</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-16.3508285265879</v>
+        <v>-16.35082852658792</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>8.397915822163672</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.363095477973212</v>
+        <v>6.382799092618345</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.848956250543474</v>
+        <v>6.53186985010219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.50318192613277</v>
+        <v>-8.123646257225076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.787020271294137</v>
+        <v>3.468443184297739</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09893815274695623</v>
+        <v>-0.1786598078152884</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-19.35593554321396</v>
+        <v>-19.47095606784193</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.040264411306749</v>
+        <v>5.885377368190887</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.428142510211382</v>
+        <v>4.57202624547394</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-12.75977372670122</v>
+        <v>-12.62839806946442</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.97141525836613</v>
+        <v>12.95074702909092</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.36347304916191</v>
+        <v>13.16160262584463</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.018298932950185</v>
+        <v>-1.837815890703848</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.82763747440872</v>
+        <v>10.45722193722596</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.787051008693395</v>
+        <v>6.607871327148207</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-12.89880018221364</v>
+        <v>-13.47648891007282</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.8350019019663</v>
+        <v>10.91422485215945</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.171755076734161</v>
+        <v>9.38058949863596</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-8.198665400494566</v>
+        <v>-8.104297087368279</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.07014486316638878</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3232776244066192</v>
+        <v>-0.3232776244066196</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1964981352588701</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1694570062503866</v>
+        <v>0.1742383816674641</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1853640926092829</v>
+        <v>0.1739687717821488</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2268603230680362</v>
+        <v>-0.218399035957216</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.07142112288220043</v>
+        <v>0.06636553055166326</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.001807176861414138</v>
+        <v>-0.002276522011566666</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3721093373673771</v>
+        <v>-0.3688282323593444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1383324544851615</v>
+        <v>0.1321846705917244</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1012877340118269</v>
+        <v>0.1025578905221135</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2907799713687872</v>
+        <v>-0.288435606198063</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3852566055828204</v>
+        <v>0.3840886807630017</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3972900608048787</v>
+        <v>0.3900850033828104</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.05799922882507061</v>
+        <v>-0.05359260073592333</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2216173708902393</v>
+        <v>0.2156837344621861</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1375800732696782</v>
+        <v>0.1366872248632437</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2671425962957634</v>
+        <v>-0.2737216985246068</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2624469498129494</v>
+        <v>0.2589631714305565</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2223237156874363</v>
+        <v>0.2247660006282858</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1984485102485295</v>
+        <v>-0.1972756475990989</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.456065705055037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-10.10312953125609</v>
+        <v>-10.1031295312561</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.934621180069829</v>
@@ -1092,7 +1092,7 @@
         <v>-0.4871499018364422</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-14.68188060684123</v>
+        <v>-14.68188060684124</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.885336199101153</v>
+        <v>1.952869395885193</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.496126951488141</v>
+        <v>-5.004307337453764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.19831172077069</v>
+        <v>-15.3362121364816</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.151911297247024</v>
+        <v>-4.859396485656077</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.46008134246425</v>
+        <v>-9.830990300271921</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-25.49981218660968</v>
+        <v>-26.22026526763252</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2417020353352684</v>
+        <v>0.4279863606984704</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.984159016113053</v>
+        <v>-4.991573823625895</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-19.00624507922231</v>
+        <v>-18.51594575850212</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.59814944887518</v>
+        <v>14.90104500678809</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.546759257869217</v>
+        <v>7.692886744210416</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.236608626025617</v>
+        <v>-3.862061588672639</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.425425865922683</v>
+        <v>8.896506878972701</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.05530688011873</v>
+        <v>3.308252605285249</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-14.97873326756733</v>
+        <v>-14.47983587007177</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.08747400511229</v>
+        <v>9.834105473604415</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.080995741198815</v>
+        <v>3.684926458912943</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-10.88853778375837</v>
+        <v>-10.73426470290491</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.03886252022824785</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2696534053469841</v>
+        <v>-0.2696534053469842</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.03855989585360155</v>
@@ -1197,7 +1197,7 @@
         <v>-0.01123605377607676</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.338635806782515</v>
+        <v>-0.3386358067825152</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04648191963328609</v>
+        <v>0.04586471836623706</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.112741642369269</v>
+        <v>-0.1250783118549811</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3784620746594609</v>
+        <v>-0.3847866476900226</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.09461234703265309</v>
+        <v>-0.09195184401714261</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.192669278298348</v>
+        <v>-0.1891239128845969</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4784151536306334</v>
+        <v>-0.487983419784794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007937858064895168</v>
+        <v>0.008383653540226778</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.109956933826034</v>
+        <v>-0.1098617178440658</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4107233048897121</v>
+        <v>-0.407377198106933</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4234084310118596</v>
+        <v>0.4277193161591102</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2145034011878156</v>
+        <v>0.2201186468673538</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1246250342161253</v>
+        <v>-0.1153093173743379</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1805118709711211</v>
+        <v>0.1894178803046213</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0666624132725312</v>
+        <v>0.07219336640352211</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3215255225499784</v>
+        <v>-0.3099091571798198</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2449618920700902</v>
+        <v>0.2384263458453916</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09777060305516783</v>
+        <v>0.09009425479448857</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2662961870020002</v>
+        <v>-0.2625119579702557</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>5.386322858411708</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-11.38398416233953</v>
+        <v>-11.38398416233952</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>7.161564006590327</v>
@@ -1306,7 +1306,7 @@
         <v>3.206260515141701</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-16.05685770958725</v>
+        <v>-16.05685770958724</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.086999582018588</v>
+        <v>7.088851760560737</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.213164854563893</v>
+        <v>2.94178396065311</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-13.78451260252855</v>
+        <v>-13.68596149752453</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.848180097984105</v>
+        <v>4.855115104848246</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.51332480888749</v>
+        <v>-1.506698235541732</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-22.95652236337025</v>
+        <v>-22.65851350510902</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.55973119980497</v>
+        <v>6.660703601630138</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.42381403500383</v>
+        <v>1.50826110080057</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.6837564372567</v>
+        <v>-17.59342996362375</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.79978042306502</v>
+        <v>12.03021998005997</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.132014435029939</v>
+        <v>7.779450300823044</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-8.918837482127213</v>
+        <v>-8.677174890711669</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.474048666669617</v>
+        <v>9.726352431803885</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.21392828935592</v>
+        <v>3.499517162522645</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-18.48620659903737</v>
+        <v>-18.26240544326135</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.15106760689259</v>
+        <v>10.1582128700515</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.90113493896025</v>
+        <v>4.904811913635659</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-14.39739634880407</v>
+        <v>-14.40239833155486</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1213956672254513</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2565695353580578</v>
+        <v>-0.2565695353580577</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1185843102103823</v>
@@ -1411,7 +1411,7 @@
         <v>0.06106624105042193</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3058179267640221</v>
+        <v>-0.305817926764022</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1531039752759288</v>
+        <v>0.1558480434519084</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07108465473126341</v>
+        <v>0.0656647707450073</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3040939352892573</v>
+        <v>-0.3039848407041253</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.07862835666790062</v>
+        <v>0.07972929834932026</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02456032878620725</v>
+        <v>-0.02423801845050065</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3712345191399399</v>
+        <v>-0.3684923433484244</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1230528184871807</v>
+        <v>0.1242108245350975</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02662786067217762</v>
+        <v>0.02834881524903722</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3311635758996363</v>
+        <v>-0.3316021178533626</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2715272650210256</v>
+        <v>0.2784355303071521</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1910716331066938</v>
+        <v>0.1841154504647659</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2081042226156148</v>
+        <v>-0.2003473382554425</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1602627607937429</v>
+        <v>0.1649890316067283</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05436303465036628</v>
+        <v>0.06006546569956695</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3107233195291097</v>
+        <v>-0.3100770046126017</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1968262200324753</v>
+        <v>0.1961774123648773</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.09519878794297519</v>
+        <v>0.09468583565445589</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2788107532558143</v>
+        <v>-0.2817685300959754</v>
       </c>
     </row>
     <row r="28">
